--- a/Other_workbooks/invivoOptostimMetadata.xlsx
+++ b/Other_workbooks/invivoOptostimMetadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>brain area for each shank</t>
   </si>
   <si>
-    <t>distance to pia for first contact per shank (um)</t>
-  </si>
-  <si>
     <t>site</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>include in analysis</t>
+  </si>
+  <si>
+    <t>distance to pia for top contact per shank (um)</t>
   </si>
 </sst>
 </file>
@@ -163,12 +163,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,10 +201,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,9 +491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,28 +515,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -562,33 +571,33 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -597,24 +606,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -623,33 +632,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E6" s="3">
         <v>25</v>
@@ -664,21 +673,21 @@
         <v>-40</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -687,74 +696,74 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
         <v>-265</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-200</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-20</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-50</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-50</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-50</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-50</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -763,36 +772,36 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
         <v>-275</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-145</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-10</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -801,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-275</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-145</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-10</v>
+      </c>
+      <c r="H10" s="6">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-275</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-145</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
